--- a/Estimate_DTG2.xlsx
+++ b/Estimate_DTG2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\BYT-Hawaco-GW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A130105-7BF1-4C80-B3A3-EF7570A695B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B00312-9DCB-4170-A4F7-6EBFBA11CD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3B0EE95-4F77-45F0-A084-54B3AA7279E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Thời gian truyền 1 lần(ms)</t>
   </si>
   <si>
-    <t>Dòng tiêu thụ trung bình 1 ngày khi truyền(uA)</t>
-  </si>
-  <si>
     <t>Năng lượng tiêu thụ mỗi ngày (mAh)</t>
   </si>
   <si>
@@ -145,6 +142,18 @@
   </si>
   <si>
     <t>Số lần giao tiếp trong ngày</t>
+  </si>
+  <si>
+    <t>Thời gian sạc(h)</t>
+  </si>
+  <si>
+    <t>Dòng tiêu thụ lúc sạc(mA)</t>
+  </si>
+  <si>
+    <t>Chu kì sạc (ngày)</t>
+  </si>
+  <si>
+    <t>Dòng tiêu thụ trung bình 1 ngày khi truyền + sạc(uA)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC19BD9-25C9-48B9-9E60-4C9F46847D93}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,28 +644,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
@@ -663,7 +675,7 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
@@ -674,9 +686,9 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>400</v>
@@ -684,9 +696,9 @@
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3">
         <v>35000</v>
@@ -694,7 +706,7 @@
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
@@ -704,9 +716,9 @@
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9">
         <v>96</v>
@@ -714,9 +726,9 @@
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9">
         <v>15</v>
@@ -724,44 +736,44 @@
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="7">
         <f>(86400000-D2*D4-D7*D5-D21*D22)</f>
-        <v>85145600</v>
+        <v>85040000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -769,19 +781,19 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="9">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9">
         <v>24</v>
@@ -789,9 +801,9 @@
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9">
         <v>15</v>
@@ -799,22 +811,22 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="9">
         <v>600</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9">
         <v>96</v>
@@ -824,42 +836,42 @@
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5">
         <f>(D3*D2*D4+D5*D7*D6+D11*D12)/86400000</f>
-        <v>261.0851851851852</v>
+        <v>212.91666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>50000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
@@ -867,94 +879,124 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5">
-        <f>D20*D21*D22/86400000</f>
-        <v>486.11111111111109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>10</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5">
-        <f>24*(D23+D19)/1000 + D10*D9/3600/1000 +D13*D14*D15/3600/1000 + D16*D17*D18/3600/1000</f>
-        <v>18.172852777777777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>11</v>
-      </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3">
-        <v>12000</v>
+        <v>39</v>
+      </c>
+      <c r="D26" s="5">
+        <f>D20*D21*D22/86400000 + D23*3600*D24*1000/D25/86400000</f>
+        <v>1270.8333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5">
+        <f>24*(D26+D19)/1000 + D10*D9/3600/1000 +D13*D14*D15/3600/1000 + D16*D17*D18/3600/1000</f>
+        <v>35.850462500000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5">
         <v>12</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="4" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>12</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D30" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="4" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="8">
-        <f>D26*D27*D25/4.2/(D24*30)</f>
-        <v>44.021706981430029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="D31" s="8">
+        <f>D29*D30*D28/4.2/(D27*30)</f>
+        <v>22.314914347339311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
         <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B20:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
